--- a/fixtures/sample.xlsx
+++ b/fixtures/sample.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17200" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>ｿﾆｯｸｶﾞｰﾃﾞﾝ</t>
     <phoneticPr fontId="1"/>
@@ -72,12 +72,47 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>会社</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STG001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STG002</t>
+  </si>
+  <si>
+    <t>STG003</t>
+  </si>
+  <si>
+    <t>STG01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STG02</t>
+  </si>
+  <si>
+    <t>STG03</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -101,6 +136,24 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -110,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -118,15 +171,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -455,32 +528,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -494,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
